--- a/Figures/Graphs.xlsx
+++ b/Figures/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eoin/Work/PhdThesis/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D9DBE-7370-494E-90C6-454F2A9AAE6B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79614C-EEF1-D442-96FC-F962A3DA7C2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{FBB92509-D705-BA4E-9EE9-D2DF7C3EF411}"/>
   </bookViews>
@@ -184,7 +184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -207,7 +207,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$19</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -267,7 +267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$19</c:f>
+              <c:f>Sheet1!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -337,7 +337,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -360,7 +360,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$19</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -420,7 +420,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$19</c:f>
+              <c:f>Sheet1!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -490,7 +490,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -515,7 +515,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$19</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -575,7 +575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$19</c:f>
+              <c:f>Sheet1!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1320,16 +1320,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>386967</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>54840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88517</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:rowOff>4425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1354,1469 +1354,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>486833</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666833</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>84749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701FCC64-6F47-E744-8EE0-205B9F8B3E08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8657166" y="4529666"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>491066</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35982</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>671066</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14899</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D844235-80F2-0E42-B73D-F1B138F4C2A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8661399" y="4057649"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>110067</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>46565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>290067</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25482</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7233C868-8B03-2646-9D0E-DE4504D21FA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9105900" y="4269315"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93134</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>294300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>72051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88635A81-D2BC-D142-9A34-38A5714153FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9110133" y="3712634"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>220133</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400133</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E0175F-0329-454E-85A8-D4BDF81BD711}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10041466" y="4262965"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>191104</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371104</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>117102</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Oval 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB538E-5B59-5340-A708-FF0FE0763B07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10006390" y="3530900"/>
-          <a:ext cx="180000" cy="178488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>633790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>813790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>178787</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB5C240-86FF-D54E-B650-ACBCAAA9032C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10449076" y="3792156"/>
-          <a:ext cx="180000" cy="178488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>641047</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>821047</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>59045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Oval 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D63B5B6-9916-2449-B1D7-94DB4F82017D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10456333" y="2874128"/>
-          <a:ext cx="180000" cy="178488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>260047</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>440047</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>186044</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Oval 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AB45C6-1D20-AA4B-896F-25E7E38F806F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10900833" y="2801556"/>
-          <a:ext cx="180000" cy="178488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>258232</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438232</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>39087</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Oval 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A44BD4B-09E2-CE41-90CB-F2767DBB0D03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10899018" y="4849885"/>
-          <a:ext cx="180000" cy="178488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>711804</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>96456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66304</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75372</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283DC21D-D8C5-5C42-98AB-F0057F778476}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11352590" y="4487027"/>
-          <a:ext cx="180000" cy="178488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>737204</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>149070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>91704</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127987</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Oval 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83744EED-363C-4944-AEE4-70A705CD3363}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11377990" y="2344356"/>
-          <a:ext cx="180000" cy="178488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678552</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>498928</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7A934F-7C82-6C40-94EF-6BD340C7D059}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="17" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7191838" y="3421418"/>
-          <a:ext cx="1471376" cy="633511"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1375248" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F21FEDA-9500-6146-AF60-9530A6032FA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6504214" y="3156858"/>
-          <a:ext cx="1375248" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Start of Request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> "r1"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678552</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>513193</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>131972</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE435A88-0FB7-6742-9438-1A722A79CD19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7191838" y="3421418"/>
-          <a:ext cx="1485641" cy="1101125"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>170542</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34472</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1316258" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FC175D-47EC-CA40-915B-DC0E4F0D6FA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7509328" y="2628901"/>
-          <a:ext cx="1316258" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>End of Request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> "r1"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3171</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>140660</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119273</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDF0B98-22C5-964B-AE9F-52A40622E4CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="1"/>
-          <a:endCxn id="25" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8167457" y="2893461"/>
-          <a:ext cx="962989" cy="818098"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3171</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>136427</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72704</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA71D788-C951-8E45-AF20-B9CDE35C31B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8167457" y="2893462"/>
-          <a:ext cx="958756" cy="1370242"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>551542</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>34472</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1375248" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1A16EF-A054-7045-B1DB-DA1F6A79E3DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8715828" y="2229758"/>
-          <a:ext cx="1375248" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Start of Request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> "r2"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>413666</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>217464</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>164325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Connector 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE397636-F93F-0F49-BEA2-9D9F93834E96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-          <a:endCxn id="31" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9403452" y="2494318"/>
-          <a:ext cx="629298" cy="1062721"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>413667</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3C2817-A084-4B45-B1A5-E1848BC70214}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9403453" y="2494318"/>
-          <a:ext cx="611404" cy="1787396"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>567871</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78015</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1719317" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364EF851-6723-AA46-B2DE-A9D7E0235503}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9557657" y="1674586"/>
-          <a:ext cx="1719317" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>E1 completes work on "r2"</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>602030</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>143003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>723790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>299</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36384F61-EA82-9641-B5EC-3FD9149F3F98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="37" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10417316" y="1939146"/>
-          <a:ext cx="121760" cy="1853010"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166915</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1719317" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35200C2-F0AB-514F-8F99-612D497BBF3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10907485" y="3160486"/>
-          <a:ext cx="1719317" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>E1 completes work on "r2"</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3075,6 +1612,3949 @@
         </a:p>
       </cdr:txBody>
     </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26183</cdr:x>
+      <cdr:y>0.76629</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28429</cdr:x>
+      <cdr:y>0.80131</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Oval 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7091355-3097-7B42-A2D9-B2826C8EFB76}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2094372" y="3854132"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26037</cdr:x>
+      <cdr:y>0.85494</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28283</cdr:x>
+      <cdr:y>0.88995</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Oval 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030A2A52-2BA0-2B45-984F-6ECD7BC2F35A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2082702" y="4299972"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37575</cdr:x>
+      <cdr:y>0.79602</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39821</cdr:x>
+      <cdr:y>0.83103</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Oval 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030A2A52-2BA0-2B45-984F-6ECD7BC2F35A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3005569" y="4003638"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06276</cdr:x>
+      <cdr:y>0.69106</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23082</cdr:x>
+      <cdr:y>0.74366</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A689AF6-A386-3440-861D-8D2F23324049}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="502032" y="3475760"/>
+          <a:ext cx="1344279" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>E1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> startup complete</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14638</cdr:x>
+      <cdr:y>0.74156</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26183</cdr:x>
+      <cdr:y>0.7838</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DD4179-1952-1A40-8260-3B2E727B102F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="7" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1170899" y="3729760"/>
+          <a:ext cx="923473" cy="212432"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14679</cdr:x>
+      <cdr:y>0.74366</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26037</cdr:x>
+      <cdr:y>0.87244</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528498C2-EABB-A041-B4F8-53D1C47C2D59}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="11" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="8" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1174172" y="3740320"/>
+          <a:ext cx="908530" cy="647712"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3186</cdr:x>
+      <cdr:y>0.85179</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34106</cdr:x>
+      <cdr:y>0.8868</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="Oval 17">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803EC19F-24E5-FF42-9DEC-6C5D93E6FBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2548467" y="4284134"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3186</cdr:x>
+      <cdr:y>0.75078</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34106</cdr:x>
+      <cdr:y>0.7858</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="Oval 18">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91402B9-E105-874D-90CA-010D78DDCB15}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2548466" y="3776133"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3747</cdr:x>
+      <cdr:y>0.68008</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39716</cdr:x>
+      <cdr:y>0.7151</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="20" name="Oval 19">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91402B9-E105-874D-90CA-010D78DDCB15}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2997200" y="3420533"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15242</cdr:x>
+      <cdr:y>0.56056</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34812</cdr:x>
+      <cdr:y>0.61316</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="21" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CCAA33-3F42-FF4F-A848-211DE8790DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1219200" y="2819400"/>
+          <a:ext cx="1565365" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>E1 receives request "r1"</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25027</cdr:x>
+      <cdr:y>0.61316</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32189</cdr:x>
+      <cdr:y>0.75591</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B10B3A-772C-AE4A-BDB1-2A0946F14F28}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="21" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="19" idx="1"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2001883" y="3083960"/>
+          <a:ext cx="572893" cy="717965"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25027</cdr:x>
+      <cdr:y>0.61316</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32189</cdr:x>
+      <cdr:y>0.85691</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90B4A29-D611-F14B-BEEA-1D14D7541922}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="21" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="18" idx="1"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2001883" y="3083960"/>
+          <a:ext cx="572894" cy="1225966"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33448</cdr:x>
+      <cdr:y>0.47639</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52085</cdr:x>
+      <cdr:y>0.529</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="29" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C1624D-E7A6-2B4F-A324-7568A95B91A2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2675467" y="2396066"/>
+          <a:ext cx="1490729" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Request "r1" complete</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38593</cdr:x>
+      <cdr:y>0.529</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42766</cdr:x>
+      <cdr:y>0.68008</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE00317-9AC9-5B43-A45D-F3E0EACF7794}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="29" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="20" idx="0"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3087028" y="2660626"/>
+          <a:ext cx="333804" cy="759907"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39492</cdr:x>
+      <cdr:y>0.529</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42766</cdr:x>
+      <cdr:y>0.80115</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7BD239-F1AC-B64F-A6D2-7D31A5189948}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="29" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="9" idx="7"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3158914" y="2660626"/>
+          <a:ext cx="261918" cy="1368804"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46361</cdr:x>
+      <cdr:y>0.37708</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65931</cdr:x>
+      <cdr:y>0.42968</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="36" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C784B3-FEEC-A947-B8BA-7F866B70DD71}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3708400" y="1896533"/>
+          <a:ext cx="1565365" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>E1 receives request "r2"</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48796</cdr:x>
+      <cdr:y>0.79455</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51042</cdr:x>
+      <cdr:y>0.82957</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="37" name="Oval 36">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B88F86-43D4-694A-B575-54F3DD281B19}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3903134" y="3996266"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48902</cdr:x>
+      <cdr:y>0.64978</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51148</cdr:x>
+      <cdr:y>0.6848</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="38" name="Oval 37">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B88F86-43D4-694A-B575-54F3DD281B19}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3911600" y="3268133"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50713</cdr:x>
+      <cdr:y>0.42968</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56146</cdr:x>
+      <cdr:y>0.79968</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12352AAB-C155-8B4C-ABC0-9080E9AF6701}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="36" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="37" idx="7"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4056479" y="2161093"/>
+          <a:ext cx="434604" cy="1860965"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50025</cdr:x>
+      <cdr:y>0.42968</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56146</cdr:x>
+      <cdr:y>0.64978</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE8FA8F-F16D-944C-9D69-F7022BC33030}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="36" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="38" idx="0"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4001428" y="2161093"/>
+          <a:ext cx="489655" cy="1107040"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54406</cdr:x>
+      <cdr:y>0.64137</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6411</cdr:x>
+      <cdr:y>0.69397</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="45" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612AA1A8-C2F4-2B4A-8DDC-5132A828EB0F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4351867" y="3225801"/>
+          <a:ext cx="776238" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>E1 calls E2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60122</cdr:x>
+      <cdr:y>0.92585</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62368</cdr:x>
+      <cdr:y>0.96087</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="46" name="Oval 45">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896B386C-B82C-B548-8C09-F020260CEFAF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4809066" y="4656666"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59804</cdr:x>
+      <cdr:y>0.50501</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6205</cdr:x>
+      <cdr:y>0.54003</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="47" name="Oval 46">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896B386C-B82C-B548-8C09-F020260CEFAF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4783666" y="2540000"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59258</cdr:x>
+      <cdr:y>0.54003</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60927</cdr:x>
+      <cdr:y>0.64137</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="48" name="Straight Connector 47">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46B52E4-101A-EE43-AE4C-599660FA8E35}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="45" idx="0"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="47" idx="4"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="4739986" y="2716119"/>
+          <a:ext cx="133508" cy="509682"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59258</cdr:x>
+      <cdr:y>0.69397</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61245</cdr:x>
+      <cdr:y>0.92585</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46B52E4-101A-EE43-AE4C-599660FA8E35}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="45" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="46" idx="0"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4739986" y="3490361"/>
+          <a:ext cx="158908" cy="1166305"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65732</cdr:x>
+      <cdr:y>0.84337</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67978</cdr:x>
+      <cdr:y>0.87839</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="55" name="Oval 54">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27ED1077-AB69-8540-A253-824C50F111BA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5257800" y="4241800"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66155</cdr:x>
+      <cdr:y>0.41916</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68401</cdr:x>
+      <cdr:y>0.45418</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="56" name="Oval 55">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D09A490-DFFD-A244-8E90-04FADEC0F366}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5291667" y="2108200"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.55284</cdr:x>
+      <cdr:y>0.28281</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75066</cdr:x>
+      <cdr:y>0.33541</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="65" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C56B7D-4BE1-E743-94D5-2D5656F2D32A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4422099" y="1422401"/>
+          <a:ext cx="1582376" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Request "r2"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>complete</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65175</cdr:x>
+      <cdr:y>0.33541</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66398</cdr:x>
+      <cdr:y>0.42846</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDD6688-2E80-414B-84FE-F9CB37EC6340}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="65" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="5213287" y="1686961"/>
+          <a:ext cx="97812" cy="467999"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65175</cdr:x>
+      <cdr:y>0.33541</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67649</cdr:x>
+      <cdr:y>0.8485</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B849426F-B414-3E4A-A461-1953E0090071}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="55" idx="7"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="65" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="5213287" y="1686961"/>
+          <a:ext cx="197858" cy="2580631"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71765</cdr:x>
+      <cdr:y>0.39559</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74011</cdr:x>
+      <cdr:y>0.43061</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="72" name="Oval 71">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C881A733-8217-5245-A62C-57AC82F99342}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5740401" y="1989667"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71765</cdr:x>
+      <cdr:y>0.7087</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74011</cdr:x>
+      <cdr:y>0.74372</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="73" name="Oval 72">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C881A733-8217-5245-A62C-57AC82F99342}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5740400" y="3564467"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66049</cdr:x>
+      <cdr:y>0.20537</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85619</cdr:x>
+      <cdr:y>0.25797</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="74" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE3FC62-05DF-1147-B89A-94163762A1C3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5283200" y="1032934"/>
+          <a:ext cx="1565365" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>E1 receives request "r3"</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73682</cdr:x>
+      <cdr:y>0.25797</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75834</cdr:x>
+      <cdr:y>0.40072</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58601D85-69AC-D647-A6B7-80F110B56F30}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="74" idx="2"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="72" idx="7"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="5893746" y="1297494"/>
+          <a:ext cx="172137" cy="717965"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73172</cdr:x>
+      <cdr:y>0.25797</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75834</cdr:x>
+      <cdr:y>0.71126</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58601D85-69AC-D647-A6B7-80F110B56F30}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="74" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="5852966" y="1297494"/>
+          <a:ext cx="212917" cy="2279866"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80021</cdr:x>
+      <cdr:y>0.37876</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98658</cdr:x>
+      <cdr:y>0.43136</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="82" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B3B985-C044-6D42-98A3-4D82F1AE8DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6400800" y="1905000"/>
+          <a:ext cx="1490729" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Request "r3" complete</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85557</cdr:x>
+      <cdr:y>0.29884</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8934</cdr:x>
+      <cdr:y>0.37876</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="83" name="Straight Connector 82">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1533CBAD-DA78-B946-8309-65EDA8EF88C8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="82" idx="0"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6843566" y="1503027"/>
+          <a:ext cx="302599" cy="401973"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82985</cdr:x>
+      <cdr:y>0.59423</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85231</cdr:x>
+      <cdr:y>0.62925</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="86" name="Oval 85">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDACAB3-A709-C145-8F63-C169A6CDAD55}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6637867" y="2988733"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83091</cdr:x>
+      <cdr:y>0.25587</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85337</cdr:x>
+      <cdr:y>0.29089</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="87" name="Oval 86">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDACAB3-A709-C145-8F63-C169A6CDAD55}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6646333" y="1286934"/>
+          <a:ext cx="179655" cy="176119"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84902</cdr:x>
+      <cdr:y>0.43136</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8934</cdr:x>
+      <cdr:y>0.59936</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F8174F-C1B1-2141-9E33-87DA76CFE1A5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="86" idx="7"/>
+          <a:endCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="82" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="6791212" y="2169560"/>
+          <a:ext cx="354953" cy="844965"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -3376,46 +5856,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AF1CB-ED2A-4749-98CC-A8BFA07CDCCC}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>1531257300</v>
       </c>
-      <c r="B3">
-        <f>SUM(C3:E3)</f>
-        <v>0</v>
-      </c>
       <c r="C3">
+        <f>SUM(D3:F3)</f>
         <v>0</v>
       </c>
       <c r="D3">
@@ -3424,315 +5900,315 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>1531257310</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B19" si="0">SUM(C4:E4)</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C19" si="0">SUM(D4:F4)</f>
         <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>1531257320</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>1531257325</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>1531257330</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>1531257335</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>1531257340</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>11000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>1531257350</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>11000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>1531257355</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>1531257360</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>17000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>1531257365</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>31000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>17000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>1531257370</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>37500</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>17000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>7500</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>1531257380</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>38500</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>17000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>7500</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>1531257390</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>44500</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>22000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>7500</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>1531257400</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>48500</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>25000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>7500</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>1531257410</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>49500</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>25000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7500</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>1531257420</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>50500</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>25000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7500</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>1531257300</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3740,228 +6216,231 @@
       <c r="D26">
         <v>0</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>1531257310</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>1531257320</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>4000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>1531257325</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>4000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>1531257330</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>9000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>1531257335</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>11000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>1531257340</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>11000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>1531257350</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>11000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>1531257355</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>13000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>1531257360</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>17000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>11000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>1531257365</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>18000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>7000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>12000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>1531257370</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>20000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>7500</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>13000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>1531257380</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>20000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>7500</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>14000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39">
         <v>1531257390</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>20000</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>7500</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>15000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>1531257400</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>25000</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>7500</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>16000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>1531257410</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>25000</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>7500</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>17000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>1531257420</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>25000</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>7500</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>18000</v>
       </c>
     </row>
